--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GammaFiber2F-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GammaFiber2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,47 @@
         <v>1.001658570074286</v>
       </c>
     </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.781905590457717</v>
+      </c>
+      <c r="D16">
+        <v>0.1727345983995174</v>
+      </c>
+      <c r="E16">
+        <v>1.083837254209483</v>
+      </c>
+      <c r="F16">
+        <v>1.781905590457717</v>
+      </c>
+      <c r="G16">
+        <v>0.5635907596766025</v>
+      </c>
+      <c r="H16">
+        <v>1.306867444027801</v>
+      </c>
+      <c r="I16">
+        <v>1.165253631243138</v>
+      </c>
+      <c r="J16">
+        <v>0.1727345983995174</v>
+      </c>
+      <c r="K16">
+        <v>0.6282859263045003</v>
+      </c>
+      <c r="L16">
+        <v>1.205095758381109</v>
+      </c>
+      <c r="M16">
+        <v>1.012364879669043</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.781905590457717</v>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4253800000000011</v>
+        <v>1.781905590457717</v>
       </c>
       <c r="D10">
-        <v>0.4870880000000012</v>
+        <v>0.1727345983995174</v>
       </c>
       <c r="E10">
-        <v>0.9422999999999986</v>
+        <v>1.083837254209483</v>
       </c>
       <c r="F10">
-        <v>0.4253800000000011</v>
+        <v>1.781905590457717</v>
       </c>
       <c r="G10">
-        <v>0.3716520000000004</v>
+        <v>0.5635907596766025</v>
       </c>
       <c r="H10">
-        <v>6.584716</v>
+        <v>1.306867444027801</v>
       </c>
       <c r="I10">
-        <v>0.7553880000000004</v>
+        <v>1.165253631243138</v>
       </c>
       <c r="J10">
-        <v>0.4870880000000012</v>
+        <v>0.1727345983995174</v>
       </c>
       <c r="K10">
-        <v>0.7146939999999999</v>
+        <v>0.6282859263045003</v>
       </c>
       <c r="L10">
-        <v>0.5700370000000005</v>
+        <v>1.205095758381109</v>
       </c>
       <c r="M10">
-        <v>1.594420666666667</v>
+        <v>1.012364879669043</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.059044241197765</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.9342228828008236</v>
       </c>
       <c r="E11">
-        <v>0.8402750000000009</v>
+        <v>1.089393757715615</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.059044241197765</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.7499412156325075</v>
       </c>
       <c r="H11">
-        <v>11.07289999999999</v>
+        <v>1.560991105673924</v>
       </c>
       <c r="I11">
-        <v>0.55</v>
+        <v>0.9785707088574476</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.9342228828008236</v>
       </c>
       <c r="K11">
-        <v>0.4201375000000004</v>
+        <v>1.01180832025822</v>
       </c>
       <c r="L11">
-        <v>0.2100687500000002</v>
+        <v>1.035426280727992</v>
       </c>
       <c r="M11">
-        <v>2.077195833333331</v>
+        <v>1.062027318646347</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4176518461440009</v>
+        <v>1.052516074712303</v>
       </c>
       <c r="D12">
-        <v>0.4363601430528017</v>
+        <v>0.9358853976740306</v>
       </c>
       <c r="E12">
-        <v>0.9537747055616003</v>
+        <v>1.089179073775055</v>
       </c>
       <c r="F12">
-        <v>0.4176518461440009</v>
+        <v>1.052516074712303</v>
       </c>
       <c r="G12">
-        <v>0.3921760903167999</v>
+        <v>0.7512985668229757</v>
       </c>
       <c r="H12">
-        <v>6.578790188543997</v>
+        <v>1.556530411707626</v>
       </c>
       <c r="I12">
-        <v>0.7680424218623999</v>
+        <v>0.9788019802851171</v>
       </c>
       <c r="J12">
-        <v>0.4363601430528017</v>
+        <v>0.9358853976740306</v>
       </c>
       <c r="K12">
-        <v>0.695067424307201</v>
+        <v>1.012532235724543</v>
       </c>
       <c r="L12">
-        <v>0.5563596352256009</v>
+        <v>1.032524155218423</v>
       </c>
       <c r="M12">
-        <v>1.5911325659136</v>
+        <v>1.060701917496184</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.979829505812832</v>
+        <v>1.058512636069459</v>
       </c>
       <c r="D13">
-        <v>0.9904905745000722</v>
+        <v>0.9337738471325808</v>
       </c>
       <c r="E13">
-        <v>0.9922433789158267</v>
+        <v>1.090817955237511</v>
       </c>
       <c r="F13">
-        <v>0.979829505812832</v>
+        <v>1.058512636069459</v>
       </c>
       <c r="G13">
-        <v>0.9883304894907732</v>
+        <v>0.7497796156059828</v>
       </c>
       <c r="H13">
-        <v>0.9992185099432691</v>
+        <v>1.552777392780684</v>
       </c>
       <c r="I13">
-        <v>0.9942745510350426</v>
+        <v>0.9793726038546173</v>
       </c>
       <c r="J13">
-        <v>0.9904905745000722</v>
+        <v>0.9337738471325808</v>
       </c>
       <c r="K13">
-        <v>0.9913669767079494</v>
+        <v>1.012295901185046</v>
       </c>
       <c r="L13">
-        <v>0.9855982412603908</v>
+        <v>1.035404268627253</v>
       </c>
       <c r="M13">
-        <v>0.9907311682829693</v>
+        <v>1.060839008446806</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.048538032049184</v>
+        <v>0.4253800000000011</v>
       </c>
       <c r="D14">
-        <v>1.03761618970499</v>
+        <v>0.4870880000000012</v>
       </c>
       <c r="E14">
-        <v>1.093227248382229</v>
+        <v>0.9422999999999986</v>
       </c>
       <c r="F14">
-        <v>1.048538032049184</v>
+        <v>0.4253800000000011</v>
       </c>
       <c r="G14">
-        <v>1.057872244402448</v>
+        <v>0.3716520000000004</v>
       </c>
       <c r="H14">
-        <v>1.107667779386402</v>
+        <v>6.584716</v>
       </c>
       <c r="I14">
-        <v>0.9238249844964177</v>
+        <v>0.7553880000000004</v>
       </c>
       <c r="J14">
-        <v>1.03761618970499</v>
+        <v>0.4870880000000012</v>
       </c>
       <c r="K14">
-        <v>1.06542171904361</v>
+        <v>0.7146939999999999</v>
       </c>
       <c r="L14">
-        <v>1.056979875546397</v>
+        <v>0.5700370000000005</v>
       </c>
       <c r="M14">
-        <v>1.044791079736945</v>
+        <v>1.594420666666667</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9927611213540172</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1.400361187171606</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8993945915700277</v>
+        <v>0.8402750000000009</v>
       </c>
       <c r="F15">
-        <v>0.9927611213540172</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1.11265427153207</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.6797203513583618</v>
+        <v>11.07289999999999</v>
       </c>
       <c r="I15">
-        <v>0.9250598974596325</v>
+        <v>0.55</v>
       </c>
       <c r="J15">
-        <v>1.400361187171606</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.149877889370817</v>
+        <v>0.4201375000000004</v>
       </c>
       <c r="L15">
-        <v>1.071319505362417</v>
+        <v>0.2100687500000002</v>
       </c>
       <c r="M15">
-        <v>1.001658570074286</v>
+        <v>2.077195833333331</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.781905590457717</v>
+        <v>0.4176518461440009</v>
       </c>
       <c r="D16">
-        <v>0.1727345983995174</v>
+        <v>0.4363601430528017</v>
       </c>
       <c r="E16">
-        <v>1.083837254209483</v>
+        <v>0.9537747055616003</v>
       </c>
       <c r="F16">
-        <v>1.781905590457717</v>
+        <v>0.4176518461440009</v>
       </c>
       <c r="G16">
-        <v>0.5635907596766025</v>
+        <v>0.3921760903167999</v>
       </c>
       <c r="H16">
-        <v>1.306867444027801</v>
+        <v>6.578790188543997</v>
       </c>
       <c r="I16">
-        <v>1.165253631243138</v>
+        <v>0.7680424218623999</v>
       </c>
       <c r="J16">
-        <v>0.1727345983995174</v>
+        <v>0.4363601430528017</v>
       </c>
       <c r="K16">
-        <v>0.6282859263045003</v>
+        <v>0.695067424307201</v>
       </c>
       <c r="L16">
-        <v>1.205095758381109</v>
+        <v>0.5563596352256009</v>
       </c>
       <c r="M16">
-        <v>1.012364879669043</v>
+        <v>1.5911325659136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.979829505812832</v>
+      </c>
+      <c r="D17">
+        <v>0.9904905745000722</v>
+      </c>
+      <c r="E17">
+        <v>0.9922433789158267</v>
+      </c>
+      <c r="F17">
+        <v>0.979829505812832</v>
+      </c>
+      <c r="G17">
+        <v>0.9883304894907732</v>
+      </c>
+      <c r="H17">
+        <v>0.9992185099432691</v>
+      </c>
+      <c r="I17">
+        <v>0.9942745510350426</v>
+      </c>
+      <c r="J17">
+        <v>0.9904905745000722</v>
+      </c>
+      <c r="K17">
+        <v>0.9913669767079494</v>
+      </c>
+      <c r="L17">
+        <v>0.9855982412603908</v>
+      </c>
+      <c r="M17">
+        <v>0.9907311682829693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.048538032049184</v>
+      </c>
+      <c r="D18">
+        <v>1.03761618970499</v>
+      </c>
+      <c r="E18">
+        <v>1.093227248382229</v>
+      </c>
+      <c r="F18">
+        <v>1.048538032049184</v>
+      </c>
+      <c r="G18">
+        <v>1.057872244402448</v>
+      </c>
+      <c r="H18">
+        <v>1.107667779386402</v>
+      </c>
+      <c r="I18">
+        <v>0.9238249844964177</v>
+      </c>
+      <c r="J18">
+        <v>1.03761618970499</v>
+      </c>
+      <c r="K18">
+        <v>1.06542171904361</v>
+      </c>
+      <c r="L18">
+        <v>1.056979875546397</v>
+      </c>
+      <c r="M18">
+        <v>1.044791079736945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9927611213540172</v>
+      </c>
+      <c r="D19">
+        <v>1.400361187171606</v>
+      </c>
+      <c r="E19">
+        <v>0.8993945915700277</v>
+      </c>
+      <c r="F19">
+        <v>0.9927611213540172</v>
+      </c>
+      <c r="G19">
+        <v>1.11265427153207</v>
+      </c>
+      <c r="H19">
+        <v>0.6797203513583618</v>
+      </c>
+      <c r="I19">
+        <v>0.9250598974596325</v>
+      </c>
+      <c r="J19">
+        <v>1.400361187171606</v>
+      </c>
+      <c r="K19">
+        <v>1.149877889370817</v>
+      </c>
+      <c r="L19">
+        <v>1.071319505362417</v>
+      </c>
+      <c r="M19">
+        <v>1.001658570074286</v>
       </c>
     </row>
   </sheetData>
